--- a/data/trans_orig/P44A$analisis-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P44A$analisis-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>8535</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4143</v>
+        <v>4243</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13416</v>
+        <v>14211</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3656884135102874</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1775306460837716</v>
+        <v>0.1818100877623851</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5748466885029223</v>
+        <v>0.6089114139252335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -764,19 +764,19 @@
         <v>8222</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4002</v>
+        <v>4008</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13474</v>
+        <v>13673</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2535255017248387</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1233968729692778</v>
+        <v>0.1235951165994609</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4154653532133834</v>
+        <v>0.421601481842816</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -785,19 +785,19 @@
         <v>16757</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10162</v>
+        <v>10428</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24448</v>
+        <v>24170</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3004647358730682</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1822210670178136</v>
+        <v>0.1869863599424869</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4383832846992108</v>
+        <v>0.4333958490127044</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>16660</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11199</v>
+        <v>11601</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20237</v>
+        <v>20216</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7138280374405839</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4798299872765374</v>
+        <v>0.4970788829346151</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8670980430599899</v>
+        <v>0.8661879218461638</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -835,19 +835,19 @@
         <v>19693</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13673</v>
+        <v>13682</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24942</v>
+        <v>25104</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6072530569200053</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4216175040858166</v>
+        <v>0.4219064394070304</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7690904496242156</v>
+        <v>0.7740910914794134</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -856,19 +856,19 @@
         <v>36353</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28715</v>
+        <v>28905</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43166</v>
+        <v>42905</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.651853788885377</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5148940207577303</v>
+        <v>0.5182963421868104</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7740194227431462</v>
+        <v>0.7693282764891852</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>3142</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7502</v>
+        <v>7435</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1346208675858693</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04271143515775647</v>
+        <v>0.04236413328080585</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3214480228136729</v>
+        <v>0.3185752755234217</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -906,19 +906,19 @@
         <v>11646</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6377</v>
+        <v>6382</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17863</v>
+        <v>17115</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3591001479185956</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1966469807098482</v>
+        <v>0.196784807937899</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5508171066585966</v>
+        <v>0.5277594983845315</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -927,19 +927,19 @@
         <v>14788</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8651</v>
+        <v>8802</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21678</v>
+        <v>22344</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2651574592594477</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1551135972195851</v>
+        <v>0.1578340677415664</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3887101887214898</v>
+        <v>0.4006514420655585</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>2959</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7150</v>
+        <v>7329</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1267795293922981</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0</v>
+        <v>0.0408387604597067</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.306360695022921</v>
+        <v>0.3140049537551042</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6430</v>
+        <v>5944</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05958878837459022</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1982629066605789</v>
+        <v>0.1832892742558085</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -998,19 +998,19 @@
         <v>4891</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1942</v>
+        <v>1935</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10435</v>
+        <v>10921</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08770754773112469</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03481342556801917</v>
+        <v>0.03469540912451892</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1871171951252414</v>
+        <v>0.1958223534469195</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>16881</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10712</v>
+        <v>10274</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23641</v>
+        <v>23116</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5170548716095731</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3281151793886546</v>
+        <v>0.3146804483859509</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7241035067511018</v>
+        <v>0.7080464645741517</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1052,19 +1052,19 @@
         <v>12831</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7420</v>
+        <v>7478</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18378</v>
+        <v>18644</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4053831942549178</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2344363254170312</v>
+        <v>0.2362543564980014</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5806245116893847</v>
+        <v>0.5890391128079556</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -1073,19 +1073,19 @@
         <v>29712</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20976</v>
+        <v>21121</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38702</v>
+        <v>37799</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4620842611133871</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3262215535766255</v>
+        <v>0.3284694751860404</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6018984093897087</v>
+        <v>0.587855095415505</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>22342</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15620</v>
+        <v>16029</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27341</v>
+        <v>27584</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6843161783169714</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4784431661755646</v>
+        <v>0.4909751587808553</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8374598348411231</v>
+        <v>0.8448991308816219</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -1123,19 +1123,19 @@
         <v>22871</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16888</v>
+        <v>16631</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>27137</v>
+        <v>27345</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7225882770076921</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5335394376835303</v>
+        <v>0.5254245527627319</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8573477415011913</v>
+        <v>0.8639129345696688</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>38</v>
@@ -1144,19 +1144,19 @@
         <v>45213</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>36729</v>
+        <v>37032</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>52342</v>
+        <v>51809</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7031556968039882</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5712086014222821</v>
+        <v>0.5759238208487204</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8140323108822394</v>
+        <v>0.8057417960643118</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>4084</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1049</v>
+        <v>1010</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9458</v>
+        <v>9241</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1251004694181276</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03212859310171894</v>
+        <v>0.03094901615852172</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2896973138257704</v>
+        <v>0.2830565299057423</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1194,19 +1194,19 @@
         <v>7612</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3265</v>
+        <v>3411</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13333</v>
+        <v>14426</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2404923749082174</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1031463696117183</v>
+        <v>0.1077535814376583</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4212235780135178</v>
+        <v>0.4557542013578873</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1215,19 +1215,19 @@
         <v>11696</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6491</v>
+        <v>6559</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18533</v>
+        <v>19009</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1819023697868606</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1009531331165156</v>
+        <v>0.1020047720775839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2882201011375258</v>
+        <v>0.2956262751950879</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>6254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2227</v>
+        <v>2275</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12382</v>
+        <v>11604</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1915532835264852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06820214456261958</v>
+        <v>0.06967094945707164</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3792452332601142</v>
+        <v>0.3554175087880482</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1265,19 +1265,19 @@
         <v>2991</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7298</v>
+        <v>7408</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09451093672382418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0284162782502724</v>
+        <v>0.02847950256761761</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2305843700832222</v>
+        <v>0.2340372889845033</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1286,19 +1286,19 @@
         <v>9245</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4246</v>
+        <v>5033</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15968</v>
+        <v>17539</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1437839907739169</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06602758001262002</v>
+        <v>0.07827155691529743</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2483412092031166</v>
+        <v>0.2727714146272037</v>
       </c>
     </row>
     <row r="12">
@@ -1319,19 +1319,19 @@
         <v>9338</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5015</v>
+        <v>4436</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15081</v>
+        <v>15048</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3212492515892375</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1725220191355057</v>
+        <v>0.1526199345322641</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5188395783419588</v>
+        <v>0.517699093796949</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1340,19 +1340,19 @@
         <v>7380</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3161</v>
+        <v>3221</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12976</v>
+        <v>12590</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3102963013905928</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1329275851587311</v>
+        <v>0.1354322221295793</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5456087889943744</v>
+        <v>0.5293757168108387</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -1361,19 +1361,19 @@
         <v>16718</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10261</v>
+        <v>10277</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24172</v>
+        <v>24704</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3163203267643863</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1941606615799345</v>
+        <v>0.1944540333455606</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4573611803730545</v>
+        <v>0.4674410450428836</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>17493</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12151</v>
+        <v>11459</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22618</v>
+        <v>22565</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6018041710058816</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4180179343816467</v>
+        <v>0.3942375648762177</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7781459441167659</v>
+        <v>0.7763090267510858</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1411,19 +1411,19 @@
         <v>13341</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8248</v>
+        <v>7792</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18442</v>
+        <v>17895</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5609299982350195</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3467972361460209</v>
+        <v>0.3276087832382082</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7754322306734884</v>
+        <v>0.75242802348023</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -1432,19 +1432,19 @@
         <v>30833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22449</v>
+        <v>22968</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38351</v>
+        <v>38000</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5834104303961152</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4247737173849423</v>
+        <v>0.4345954082714609</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7256514309309603</v>
+        <v>0.7190108306054013</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>7528</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3249</v>
+        <v>3220</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13361</v>
+        <v>13830</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.259002734677083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1117870253839656</v>
+        <v>0.1107690468081608</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4596620148901319</v>
+        <v>0.4757828306131499</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1482,19 +1482,19 @@
         <v>12587</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7049</v>
+        <v>7639</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17565</v>
+        <v>17547</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5292575899713349</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2964074115899596</v>
+        <v>0.3212140558618768</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7385362690952575</v>
+        <v>0.7377847919495285</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1503,19 +1503,19 @@
         <v>20116</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13757</v>
+        <v>12992</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29048</v>
+        <v>28234</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3806198187629073</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.26031136207467</v>
+        <v>0.2458315149335388</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5496390071871795</v>
+        <v>0.53421969649209</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>3029</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7378</v>
+        <v>7505</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1042151385303927</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03198714099381222</v>
+        <v>0.0318408396910719</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2538411651655404</v>
+        <v>0.2581863732451514</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -1553,19 +1553,19 @@
         <v>3251</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>987</v>
+        <v>1016</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8064</v>
+        <v>7926</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1366943880362507</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04149164018727614</v>
+        <v>0.04272874234981641</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.339065749852879</v>
+        <v>0.3332665792176653</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -1574,19 +1574,19 @@
         <v>6280</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2232</v>
+        <v>2180</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12284</v>
+        <v>11913</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1188310891444812</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04223556066114011</v>
+        <v>0.0412545816824349</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2324386119050483</v>
+        <v>0.2254199833753086</v>
       </c>
     </row>
     <row r="16">
@@ -1607,19 +1607,19 @@
         <v>6317</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2286</v>
+        <v>2908</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12227</v>
+        <v>12517</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2598339467501418</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09401269510070086</v>
+        <v>0.1196285740206028</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5029131375237034</v>
+        <v>0.5148394602841379</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1628,19 +1628,19 @@
         <v>5339</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1552</v>
+        <v>1899</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11060</v>
+        <v>10619</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2797201051120821</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08129049350957727</v>
+        <v>0.09950013781311789</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5794866447354667</v>
+        <v>0.5563701528155177</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1649,19 +1649,19 @@
         <v>11656</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5365</v>
+        <v>6274</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19198</v>
+        <v>19524</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.268579708410128</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1236168404918334</v>
+        <v>0.1445726032648011</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4423605938596291</v>
+        <v>0.4498835743366833</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>10596</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5085</v>
+        <v>5174</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16407</v>
+        <v>17036</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4358375037677064</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2091581176781861</v>
+        <v>0.212832079618432</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.674852979368879</v>
+        <v>0.7007046468482006</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1699,19 +1699,19 @@
         <v>10223</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5170</v>
+        <v>5229</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15105</v>
+        <v>14744</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5356503439525496</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.270863462620614</v>
+        <v>0.273990253059316</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7914349735094868</v>
+        <v>0.7724826667980755</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -1720,19 +1720,19 @@
         <v>20820</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12988</v>
+        <v>12832</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27982</v>
+        <v>28349</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4797343336618918</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2992820114139295</v>
+        <v>0.2956800995620901</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.644777459723814</v>
+        <v>0.6532242738680782</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>3138</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>950</v>
+        <v>903</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8150</v>
+        <v>7734</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1290593473447269</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03906767763355879</v>
+        <v>0.03713154398710827</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3352078280398548</v>
+        <v>0.3181241495009418</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -1770,19 +1770,19 @@
         <v>5438</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1666</v>
+        <v>1962</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10606</v>
+        <v>11214</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2849178725316378</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08728917645430426</v>
+        <v>0.1028016829747834</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5556742414779188</v>
+        <v>0.5875465296801862</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -1791,19 +1791,19 @@
         <v>8576</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3682</v>
+        <v>4034</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>16333</v>
+        <v>16222</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1976045881676342</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08484365440622194</v>
+        <v>0.09296301150877602</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.376361848217049</v>
+        <v>0.3738048508425688</v>
       </c>
     </row>
     <row r="19">
@@ -1820,19 +1820,19 @@
         <v>7405</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3143</v>
+        <v>2837</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13834</v>
+        <v>13667</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3045850910492226</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1292704577355462</v>
+        <v>0.1166884999946037</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5690249709663491</v>
+        <v>0.562132619325649</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5880</v>
+        <v>4218</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05117686668210918</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3080552569027284</v>
+        <v>0.2209895818571293</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1862,19 +1862,19 @@
         <v>8382</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3999</v>
+        <v>3393</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16375</v>
+        <v>15462</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1931383303095164</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09215026745105408</v>
+        <v>0.07819479193467432</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3773134848215358</v>
+        <v>0.3562801067021607</v>
       </c>
     </row>
     <row r="20">
@@ -1895,19 +1895,19 @@
         <v>41070</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30783</v>
+        <v>30955</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52257</v>
+        <v>52783</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3755323822530451</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2814655459626043</v>
+        <v>0.2830395218135471</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4778163836278409</v>
+        <v>0.4826284455048975</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -1916,19 +1916,19 @@
         <v>33771</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23142</v>
+        <v>25176</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43857</v>
+        <v>44416</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3157660353698978</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2163826580787245</v>
+        <v>0.2354014365920429</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.410063196192091</v>
+        <v>0.4152939978097556</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>69</v>
@@ -1937,19 +1937,19 @@
         <v>74842</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>60346</v>
+        <v>60311</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>90360</v>
+        <v>90409</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3459828250594279</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.278966699221934</v>
+        <v>0.2788090849800882</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4177179280495245</v>
+        <v>0.4179451930885836</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>67090</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>55250</v>
+        <v>54863</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>77898</v>
+        <v>76676</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6134476704769855</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5051888680355084</v>
+        <v>0.501643472450912</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7122665810086291</v>
+        <v>0.70109128309333</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>61</v>
@@ -1987,19 +1987,19 @@
         <v>66129</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54255</v>
+        <v>56479</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>76687</v>
+        <v>77299</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6183072103378344</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5072840622761006</v>
+        <v>0.5280863229691877</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7170285641097613</v>
+        <v>0.722748308415596</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>118</v>
@@ -2008,19 +2008,19 @@
         <v>133220</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>119069</v>
+        <v>117633</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>147821</v>
+        <v>147738</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6158503144152803</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.550433936125643</v>
+        <v>0.5437987943811161</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6833501931408523</v>
+        <v>0.6829659587101463</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>17892</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10851</v>
+        <v>10652</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28527</v>
+        <v>27145</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1636001922329219</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09921729763617632</v>
+        <v>0.09740131407150063</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.260840426262801</v>
+        <v>0.2482006372035832</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -2058,19 +2058,19 @@
         <v>37283</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28130</v>
+        <v>27404</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49883</v>
+        <v>47242</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3485983603345983</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2630144275260097</v>
+        <v>0.2562301120616553</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4664131157006827</v>
+        <v>0.4417136915463675</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -2079,19 +2079,19 @@
         <v>55176</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42559</v>
+        <v>42604</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69475</v>
+        <v>68923</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2550666149628069</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1967439282811159</v>
+        <v>0.1969485642965454</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3211729366833092</v>
+        <v>0.3186196956740068</v>
       </c>
     </row>
     <row r="23">
@@ -2108,19 +2108,19 @@
         <v>19647</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12915</v>
+        <v>11880</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30203</v>
+        <v>29388</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1796449615522855</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1180859352093026</v>
+        <v>0.1086303365816594</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2761650696482835</v>
+        <v>0.2687090128865383</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -2129,19 +2129,19 @@
         <v>9152</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4031</v>
+        <v>4111</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16699</v>
+        <v>16987</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08556876449571599</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03769291518248413</v>
+        <v>0.03844152127638911</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1561383880379678</v>
+        <v>0.158832619243896</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>27</v>
@@ -2150,19 +2150,19 @@
         <v>28799</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20064</v>
+        <v>20282</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>41728</v>
+        <v>41737</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1331319971424602</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09275409541641207</v>
+        <v>0.093762127756435</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1929018547174938</v>
+        <v>0.1929437434639666</v>
       </c>
     </row>
     <row r="24">
@@ -2423,19 +2423,19 @@
         <v>17135</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10627</v>
+        <v>10542</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24350</v>
+        <v>23234</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3949685949220753</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2449434822036718</v>
+        <v>0.2429820398417699</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5612771275747249</v>
+        <v>0.5355382495741817</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2444,19 +2444,19 @@
         <v>11311</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6167</v>
+        <v>6562</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17114</v>
+        <v>17628</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3371141567700054</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1837934078392555</v>
+        <v>0.1955730234382063</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5100561840790059</v>
+        <v>0.525370242854849</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -2465,19 +2465,19 @@
         <v>28446</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19746</v>
+        <v>19819</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38094</v>
+        <v>38292</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3697373942470416</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2566551312086432</v>
+        <v>0.2576004587075769</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4951376046876059</v>
+        <v>0.4977083559274731</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>23159</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16556</v>
+        <v>16570</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29800</v>
+        <v>29589</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5338095867972673</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3816180924025362</v>
+        <v>0.3819441576543187</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6868898873254876</v>
+        <v>0.6820204344018591</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -2515,19 +2515,19 @@
         <v>19744</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13501</v>
+        <v>13438</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25697</v>
+        <v>25523</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5884538035532035</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4023924619686741</v>
+        <v>0.4005064224279854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7658486077715342</v>
+        <v>0.7606761701983948</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -2536,19 +2536,19 @@
         <v>42903</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33836</v>
+        <v>34340</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52302</v>
+        <v>51816</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5576407610811668</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4397903801071528</v>
+        <v>0.4463344254085668</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6797968434880477</v>
+        <v>0.6734845456975989</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>7380</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2799</v>
+        <v>3196</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13293</v>
+        <v>13521</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1701049308276801</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06452626927619592</v>
+        <v>0.07367539217537496</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.306413270283912</v>
+        <v>0.3116516765003143</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -2586,19 +2586,19 @@
         <v>7056</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2826</v>
+        <v>3040</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13039</v>
+        <v>13217</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2102922045566051</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0842141563350033</v>
+        <v>0.09061245243213976</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3886226303723177</v>
+        <v>0.3939143169638799</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -2607,19 +2607,19 @@
         <v>14436</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7982</v>
+        <v>8037</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22425</v>
+        <v>23401</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1876312123096953</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1037429007020992</v>
+        <v>0.1044634747262573</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2914712954010584</v>
+        <v>0.3041592928257857</v>
       </c>
     </row>
     <row r="7">
@@ -2636,19 +2636,19 @@
         <v>3033</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>911</v>
+        <v>887</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8093</v>
+        <v>8005</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06991411233278393</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02100887525622901</v>
+        <v>0.02044163882508723</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1865452285868147</v>
+        <v>0.1845228167877574</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2657,19 +2657,19 @@
         <v>4374</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1078</v>
+        <v>1178</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10029</v>
+        <v>10522</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.130355499070871</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03211679686565852</v>
+        <v>0.03511582735693461</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2988945066628722</v>
+        <v>0.3135932130508745</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -2678,19 +2678,19 @@
         <v>7407</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3194</v>
+        <v>3145</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14549</v>
+        <v>13926</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09627352064399285</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04152090706015638</v>
+        <v>0.04088188033768157</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1890996688791063</v>
+        <v>0.1810001112833728</v>
       </c>
     </row>
     <row r="8">
@@ -2711,19 +2711,19 @@
         <v>14013</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8562</v>
+        <v>8374</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20473</v>
+        <v>20246</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3580743482051286</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2187862167726755</v>
+        <v>0.2139830520935938</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5231414775800274</v>
+        <v>0.5173493682828898</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -2732,19 +2732,19 @@
         <v>13363</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7750</v>
+        <v>7802</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19831</v>
+        <v>19454</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4013831429404179</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2328012747985636</v>
+        <v>0.2343407154581391</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5956761999410942</v>
+        <v>0.584338114209093</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -2753,19 +2753,19 @@
         <v>27376</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19609</v>
+        <v>19069</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36006</v>
+        <v>35916</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3779817766302356</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2707361804460154</v>
+        <v>0.2632836909377948</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4971419341856396</v>
+        <v>0.4958862175308952</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>22856</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16099</v>
+        <v>16029</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28631</v>
+        <v>28268</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5840382906078924</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4113645572108537</v>
+        <v>0.4095767634743181</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7316035030960378</v>
+        <v>0.7223180014059799</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -2803,19 +2803,19 @@
         <v>11728</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5886</v>
+        <v>6329</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18181</v>
+        <v>18342</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3522716341784074</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1767992991391782</v>
+        <v>0.1901052759099395</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5461200917677869</v>
+        <v>0.5509488385063007</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>33</v>
@@ -2824,19 +2824,19 @@
         <v>34584</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>26365</v>
+        <v>26358</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>43737</v>
+        <v>42776</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4775038522242534</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3640244692427189</v>
+        <v>0.363929239748244</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6038820973637139</v>
+        <v>0.5906109100624262</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>6132</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2446</v>
+        <v>2533</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12472</v>
+        <v>12360</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1566921866777944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06250519670866422</v>
+        <v>0.06473653053827545</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.318701614213687</v>
+        <v>0.315822870550958</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -2874,19 +2874,19 @@
         <v>12016</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5932</v>
+        <v>6247</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17680</v>
+        <v>18015</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3609328424901327</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1781933113740913</v>
+        <v>0.1876442072867865</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5310554695128648</v>
+        <v>0.5411234726928994</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -2895,19 +2895,19 @@
         <v>18148</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11630</v>
+        <v>11360</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26434</v>
+        <v>26432</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2505739550791677</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1605712145086207</v>
+        <v>0.1568523680235846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3649754182447419</v>
+        <v>0.3649409953447909</v>
       </c>
     </row>
     <row r="11">
@@ -2924,19 +2924,19 @@
         <v>3888</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>932</v>
+        <v>1008</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8758</v>
+        <v>8675</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09935237232393626</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0238143817428831</v>
+        <v>0.02575180355336417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2237965409348212</v>
+        <v>0.2216696044208299</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -2945,19 +2945,19 @@
         <v>4076</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9080</v>
+        <v>9411</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1224401353721872</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03048242583266231</v>
+        <v>0.03000153439667657</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2727303068360091</v>
+        <v>0.2826695926595477</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -2966,19 +2966,19 @@
         <v>7964</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3206</v>
+        <v>3789</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13457</v>
+        <v>14971</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1099649509742577</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04426860941852399</v>
+        <v>0.05231391805701161</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1857952199209451</v>
+        <v>0.2066988137693625</v>
       </c>
     </row>
     <row r="12">
@@ -2999,19 +2999,19 @@
         <v>14601</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9098</v>
+        <v>9001</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21236</v>
+        <v>20899</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3800476240874505</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2368284026180499</v>
+        <v>0.2342895680953038</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5527579092409572</v>
+        <v>0.5439977149625513</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -3020,19 +3020,19 @@
         <v>10854</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5798</v>
+        <v>5680</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16778</v>
+        <v>17159</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3650090814876434</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1949815753773262</v>
+        <v>0.1910082210111662</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5642193519309574</v>
+        <v>0.5770401848396468</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -3041,19 +3041,19 @@
         <v>25455</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17702</v>
+        <v>17824</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>33791</v>
+        <v>34713</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3734862870740541</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2597362564737931</v>
+        <v>0.2615224211620621</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4957984329647196</v>
+        <v>0.5093327676923476</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>19404</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13646</v>
+        <v>13544</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25669</v>
+        <v>25684</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5050811334853859</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3551881175193545</v>
+        <v>0.3525423676973582</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6681533312554797</v>
+        <v>0.6685280947357499</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3091,19 +3091,19 @@
         <v>18103</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11334</v>
+        <v>11792</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23138</v>
+        <v>23117</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6087921664436166</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3811424222823472</v>
+        <v>0.3965577104091717</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.778129644077691</v>
+        <v>0.7774081438068482</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -3112,19 +3112,19 @@
         <v>37507</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29065</v>
+        <v>28823</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45530</v>
+        <v>45497</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5503304011408262</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4264622367547521</v>
+        <v>0.4229130341796559</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6680409696099125</v>
+        <v>0.6675685075724986</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>10395</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5573</v>
+        <v>5553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16285</v>
+        <v>16939</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2705670190325882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1450548483204936</v>
+        <v>0.1445477798006831</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.423887992358335</v>
+        <v>0.4409089781656902</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -3162,19 +3162,19 @@
         <v>6098</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2604</v>
+        <v>2095</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11718</v>
+        <v>10916</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2050670615762891</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08757266676889236</v>
+        <v>0.07044598178089388</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3940835826889581</v>
+        <v>0.3670951444352288</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -3183,19 +3183,19 @@
         <v>16493</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9978</v>
+        <v>10981</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24458</v>
+        <v>24958</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2419892966647693</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1464074115658104</v>
+        <v>0.1611253323828528</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3588708912401605</v>
+        <v>0.3661989040131083</v>
       </c>
     </row>
     <row r="15">
@@ -3212,19 +3212,19 @@
         <v>5361</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1868</v>
+        <v>1942</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11431</v>
+        <v>11374</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1395447655132685</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04861771870558355</v>
+        <v>0.05053959083138997</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2975511958728642</v>
+        <v>0.2960552183662479</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -3246,19 +3246,19 @@
         <v>5361</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1924</v>
+        <v>1861</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12554</v>
+        <v>11357</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07866119059825823</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02822820108288294</v>
+        <v>0.02730198313979999</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1842001300753321</v>
+        <v>0.1666339699405874</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>11689</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7000</v>
+        <v>5715</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18668</v>
+        <v>17605</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3157177661245293</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1890763110182546</v>
+        <v>0.1543723354158906</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5042385060816456</v>
+        <v>0.4755280718608682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -3300,19 +3300,19 @@
         <v>3960</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1061</v>
+        <v>1074</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9010</v>
+        <v>9692</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.202619481275502</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05429523685234251</v>
+        <v>0.05495314153692114</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4610118449209542</v>
+        <v>0.4958621858527427</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -3321,19 +3321,19 @@
         <v>15649</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9271</v>
+        <v>9822</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23879</v>
+        <v>24258</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2766411384617599</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1638957985800975</v>
+        <v>0.1736398946774529</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4221311129418442</v>
+        <v>0.4288255726859884</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>17284</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11119</v>
+        <v>10924</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24184</v>
+        <v>23461</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4668542766775051</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3003339827410804</v>
+        <v>0.2950587155168019</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6532272585452188</v>
+        <v>0.6337004343771675</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -3371,19 +3371,19 @@
         <v>15565</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9981</v>
+        <v>10243</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18452</v>
+        <v>18461</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7963583275547196</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5106804065449886</v>
+        <v>0.5240911928450201</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9440763993691055</v>
+        <v>0.9445270826000998</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -3392,19 +3392,19 @@
         <v>32849</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23840</v>
+        <v>24952</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39910</v>
+        <v>40610</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5807013356907424</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4214370189227407</v>
+        <v>0.4411056762990094</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7055164648097849</v>
+        <v>0.7178984126937379</v>
       </c>
     </row>
     <row r="18">
@@ -3421,19 +3421,19 @@
         <v>11594</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5737</v>
+        <v>6249</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17841</v>
+        <v>18529</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.313163511343849</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1549616883221732</v>
+        <v>0.1687811356152361</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4818915625845921</v>
+        <v>0.5004815920341849</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -3442,19 +3442,19 @@
         <v>5087</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1855</v>
+        <v>1757</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10120</v>
+        <v>10263</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.260273068098505</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09489358645257392</v>
+        <v>0.08988197994734883</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5177846529248465</v>
+        <v>0.525077472493426</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -3463,19 +3463,19 @@
         <v>16681</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9534</v>
+        <v>9816</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25311</v>
+        <v>24691</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2948893159360579</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1685447035834173</v>
+        <v>0.173529472262231</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4474525725829378</v>
+        <v>0.4364815555749691</v>
       </c>
     </row>
     <row r="19">
@@ -3492,19 +3492,19 @@
         <v>4792</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1176</v>
+        <v>1842</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10785</v>
+        <v>11481</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1294413309972324</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03176539488314413</v>
+        <v>0.04974754703102737</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2913101370742315</v>
+        <v>0.3100963373824738</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4873</v>
+        <v>4805</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05658522170449898</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2493113122420748</v>
+        <v>0.2458436266739695</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -3534,19 +3534,19 @@
         <v>5898</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2100</v>
+        <v>2309</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12907</v>
+        <v>13140</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1042687913818833</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.037123788050729</v>
+        <v>0.04082301727768868</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2281686582785187</v>
+        <v>0.232288796548818</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>57438</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45807</v>
+        <v>46198</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>70887</v>
+        <v>69026</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3636238036384994</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2899913938352135</v>
+        <v>0.2924685097121726</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4487659447590695</v>
+        <v>0.4369861707275261</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -3588,19 +3588,19 @@
         <v>39488</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28209</v>
+        <v>29942</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50858</v>
+        <v>51690</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3400458024741593</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2429139789973114</v>
+        <v>0.2578433312882236</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4379549935852354</v>
+        <v>0.4451216788160562</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>91</v>
@@ -3609,19 +3609,19 @@
         <v>96926</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>80690</v>
+        <v>81903</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>112610</v>
+        <v>115012</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3536341795387599</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2943960194924147</v>
+        <v>0.2988233133034293</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4108575754515758</v>
+        <v>0.4196215301431835</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>82704</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>69706</v>
+        <v>71119</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>95570</v>
+        <v>96425</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5235735513526389</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4412886803068172</v>
+        <v>0.450235964218026</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6050252192863329</v>
+        <v>0.610440018353553</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>55</v>
@@ -3659,19 +3659,19 @@
         <v>65140</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>53151</v>
+        <v>52865</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>76504</v>
+        <v>76072</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5609425123724595</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4577022590716825</v>
+        <v>0.4552417301709759</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6587974738730985</v>
+        <v>0.6550825714658608</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>136</v>
@@ -3680,19 +3680,19 @@
         <v>147844</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>132525</v>
+        <v>130318</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>165107</v>
+        <v>164979</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5394061858064202</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4835156529456192</v>
+        <v>0.4754621828055147</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6023928824593722</v>
+        <v>0.6019231769977448</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>35501</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26424</v>
+        <v>25192</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47624</v>
+        <v>46692</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2247462546752532</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1672853278839328</v>
+        <v>0.1594812847554992</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.301492273918935</v>
+        <v>0.2955913075047875</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -3730,19 +3730,19 @@
         <v>30257</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22603</v>
+        <v>21659</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42315</v>
+        <v>41665</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2605536215041537</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1946421719066587</v>
+        <v>0.1865110828095554</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3643862360407529</v>
+        <v>0.3587874858519958</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>59</v>
@@ -3751,19 +3751,19 @@
         <v>65758</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52425</v>
+        <v>52668</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>81340</v>
+        <v>82203</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2399172665065357</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1912732112034251</v>
+        <v>0.1921575154804474</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2967677075026448</v>
+        <v>0.2999151918628151</v>
       </c>
     </row>
     <row r="23">
@@ -3780,19 +3780,19 @@
         <v>17075</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10809</v>
+        <v>10250</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26221</v>
+        <v>27738</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1080949145487707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06842847783873002</v>
+        <v>0.06489112004535487</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1659948365034782</v>
+        <v>0.1756016551427836</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -3801,19 +3801,19 @@
         <v>9556</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4315</v>
+        <v>4434</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17804</v>
+        <v>16516</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08229093583507152</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.037157305879423</v>
+        <v>0.0381829052693855</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1533160264765593</v>
+        <v>0.1422265675815723</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -3822,19 +3822,19 @@
         <v>26631</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17342</v>
+        <v>17604</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>37318</v>
+        <v>38723</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09716217916417016</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06327226634243348</v>
+        <v>0.06422745508728303</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1361534370279752</v>
+        <v>0.141279871219045</v>
       </c>
     </row>
     <row r="24">
@@ -4095,19 +4095,19 @@
         <v>7043</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3197</v>
+        <v>3603</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12853</v>
+        <v>13114</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1169678655697097</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0530936150229984</v>
+        <v>0.05982955304197205</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2134487955140365</v>
+        <v>0.2177804037339989</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -4116,19 +4116,19 @@
         <v>10913</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6604</v>
+        <v>6920</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16391</v>
+        <v>16544</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1217235734089167</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0736586901347388</v>
+        <v>0.07717953803748834</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1828265592024695</v>
+        <v>0.184527733822865</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -4137,19 +4137,19 @@
         <v>17956</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12129</v>
+        <v>12070</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24912</v>
+        <v>25970</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1198128186364112</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08092844951623523</v>
+        <v>0.08053600783595068</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1662242571113323</v>
+        <v>0.1732830413778736</v>
       </c>
     </row>
     <row r="5">
@@ -4166,19 +4166,19 @@
         <v>25579</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18902</v>
+        <v>18698</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32475</v>
+        <v>32456</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4247932909722559</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3139043708652645</v>
+        <v>0.3105173566932496</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5393137893778484</v>
+        <v>0.5390001202889222</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -4187,19 +4187,19 @@
         <v>43638</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36217</v>
+        <v>36683</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50227</v>
+        <v>51744</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4867307315971519</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4039581544555498</v>
+        <v>0.4091549827793453</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5602238990504192</v>
+        <v>0.5771498419196044</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>108</v>
@@ -4208,19 +4208,19 @@
         <v>69217</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>58901</v>
+        <v>60384</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79287</v>
+        <v>79703</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4618454223493635</v>
+        <v>0.4618454223493636</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3930152619974928</v>
+        <v>0.4029115990020232</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5290405128503446</v>
+        <v>0.5318126662785974</v>
       </c>
     </row>
     <row r="6">
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1891</v>
+        <v>1919</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004183264320563218</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02109566010310162</v>
+        <v>0.02139978821183552</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2145</v>
+        <v>1923</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002502506684597705</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01431447874821578</v>
+        <v>0.01283393283700592</v>
       </c>
     </row>
     <row r="7">
@@ -4300,19 +4300,19 @@
         <v>38500</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30738</v>
+        <v>31577</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44341</v>
+        <v>44604</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6393809239720063</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5104681774431765</v>
+        <v>0.5244009260427364</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7363778419234337</v>
+        <v>0.7407472069067416</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>93</v>
@@ -4321,19 +4321,19 @@
         <v>57481</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50597</v>
+        <v>49636</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64335</v>
+        <v>63704</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6411370658721091</v>
+        <v>0.6411370658721093</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.564348808780892</v>
+        <v>0.5536283155037632</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.717581584971129</v>
+        <v>0.7105473138177125</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -4342,19 +4342,19 @@
         <v>95981</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>85812</v>
+        <v>85853</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105210</v>
+        <v>104354</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6404314807877702</v>
+        <v>0.6404314807877701</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5725743958529939</v>
+        <v>0.5728507053442687</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7020076473076292</v>
+        <v>0.696294492969895</v>
       </c>
     </row>
     <row r="8">
@@ -4375,19 +4375,19 @@
         <v>24510</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16421</v>
+        <v>17331</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34573</v>
+        <v>33891</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1671729452563866</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1120026983385611</v>
+        <v>0.1182090307286675</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2358097584661598</v>
+        <v>0.2311629855288151</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -4396,19 +4396,19 @@
         <v>21967</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15666</v>
+        <v>16081</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29943</v>
+        <v>30107</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.146224052908192</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1042809067831603</v>
+        <v>0.1070462476427684</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1993165169110948</v>
+        <v>0.2004106947229662</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>62</v>
@@ -4417,19 +4417,19 @@
         <v>46477</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35992</v>
+        <v>35557</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>58544</v>
+        <v>57299</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1565709915355357</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.121248918393801</v>
+        <v>0.1197835199316757</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.197224915908687</v>
+        <v>0.1930291116010973</v>
       </c>
     </row>
     <row r="9">
@@ -4446,19 +4446,19 @@
         <v>71270</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>61586</v>
+        <v>60505</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>82167</v>
+        <v>81803</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4861075511424658</v>
+        <v>0.4861075511424659</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.420059316704858</v>
+        <v>0.4126819158227901</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5604356589168894</v>
+        <v>0.5579507523653079</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>100</v>
@@ -4467,19 +4467,19 @@
         <v>58474</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>49353</v>
+        <v>49880</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>67639</v>
+        <v>68039</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3892364962697447</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3285196510767371</v>
+        <v>0.3320339233751769</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4502437338490382</v>
+        <v>0.452910075808446</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>191</v>
@@ -4488,19 +4488,19 @@
         <v>129744</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>115831</v>
+        <v>116021</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>143451</v>
+        <v>143972</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4370824082575674</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.390212229677262</v>
+        <v>0.3908550652181616</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4832601559865286</v>
+        <v>0.4850153477509851</v>
       </c>
     </row>
     <row r="10">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3099</v>
+        <v>3015</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004155564025911378</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02113785623207222</v>
+        <v>0.0205626608347987</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3594</v>
+        <v>4587</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00481269859373981</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02392338424886655</v>
+        <v>0.03053367693695752</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4776</v>
+        <v>4146</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004488131025669186</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01608814601334727</v>
+        <v>0.01396776646353326</v>
       </c>
     </row>
     <row r="11">
@@ -4588,19 +4588,19 @@
         <v>98122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>87781</v>
+        <v>88351</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108588</v>
+        <v>108118</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6692570460182661</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5987289781793018</v>
+        <v>0.602614783104647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7406463499888875</v>
+        <v>0.7374404107332898</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>187</v>
@@ -4609,19 +4609,19 @@
         <v>109480</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>101201</v>
+        <v>100470</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118176</v>
+        <v>117415</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7287614494078418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6736517355409579</v>
+        <v>0.6687883895475899</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7866515050745806</v>
+        <v>0.7815847322962858</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>311</v>
@@ -4630,19 +4630,19 @@
         <v>207601</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>194903</v>
+        <v>194408</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>220977</v>
+        <v>220356</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6993714272675207</v>
+        <v>0.6993714272675208</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6565934237187439</v>
+        <v>0.6549244305728671</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7444313068479601</v>
+        <v>0.7423380530225376</v>
       </c>
     </row>
     <row r="12">
@@ -4663,19 +4663,19 @@
         <v>19375</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13118</v>
+        <v>12134</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27908</v>
+        <v>28062</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.108149707277227</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07322055737608628</v>
+        <v>0.06773220851078161</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1557802201975093</v>
+        <v>0.1566366706428371</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -4684,19 +4684,19 @@
         <v>10384</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6181</v>
+        <v>6150</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15908</v>
+        <v>15557</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.07373396189848412</v>
+        <v>0.07373396189848415</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04388788336187216</v>
+        <v>0.04367009451484698</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1129554291028476</v>
+        <v>0.1104618686296828</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -4705,19 +4705,19 @@
         <v>29760</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21551</v>
+        <v>21672</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39134</v>
+        <v>39457</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.09300234544700633</v>
+        <v>0.09300234544700635</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06734891489528479</v>
+        <v>0.06772847634854071</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1222969586660982</v>
+        <v>0.1233063008476915</v>
       </c>
     </row>
     <row r="13">
@@ -4734,19 +4734,19 @@
         <v>76642</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65613</v>
+        <v>64150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89247</v>
+        <v>88678</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4278039601009478</v>
+        <v>0.4278039601009477</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3662378665380872</v>
+        <v>0.3580734569742209</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4981627496173517</v>
+        <v>0.4949849415853549</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>87</v>
@@ -4755,19 +4755,19 @@
         <v>49405</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41235</v>
+        <v>40405</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58046</v>
+        <v>58275</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3507980946198931</v>
+        <v>0.3507980946198933</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2927853037250417</v>
+        <v>0.2868947803758559</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4121470170817075</v>
+        <v>0.4137762200454527</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>184</v>
@@ -4776,19 +4776,19 @@
         <v>126048</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>112249</v>
+        <v>110719</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142359</v>
+        <v>140183</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3939114584377036</v>
+        <v>0.3939114584377035</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3507898070116426</v>
+        <v>0.3460084524732792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4448849023051594</v>
+        <v>0.4380864606947295</v>
       </c>
     </row>
     <row r="14">
@@ -4805,19 +4805,19 @@
         <v>2293</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8006</v>
+        <v>7204</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01279965863528485</v>
+        <v>0.01279965863528484</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002898757268962484</v>
+        <v>0.00289056625251183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04468987480513052</v>
+        <v>0.040213132410797</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -4829,16 +4829,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4053</v>
+        <v>3601</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.004684076866240713</v>
+        <v>0.004684076866240716</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02877815259076964</v>
+        <v>0.02556589084442753</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -4847,19 +4847,19 @@
         <v>2953</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7603</v>
+        <v>7697</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009227757106911087</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002066558683508819</v>
+        <v>0.002020586563638508</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02376089603389727</v>
+        <v>0.02405285389981835</v>
       </c>
     </row>
     <row r="15">
@@ -4876,19 +4876,19 @@
         <v>119929</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>109015</v>
+        <v>108149</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>130208</v>
+        <v>131323</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6694212343644383</v>
+        <v>0.6694212343644381</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6085013151419503</v>
+        <v>0.6036688514704102</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.726800399161069</v>
+        <v>0.7330194605396138</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>183</v>
@@ -4897,19 +4897,19 @@
         <v>107122</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>98339</v>
+        <v>99520</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>114161</v>
+        <v>114228</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.7606085812184609</v>
+        <v>0.7606085812184612</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6982460017362001</v>
+        <v>0.706635060707439</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8105862135817311</v>
+        <v>0.8110634245037481</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>337</v>
@@ -4918,19 +4918,19 @@
         <v>227051</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>211027</v>
+        <v>212540</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>240286</v>
+        <v>240547</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7095554148662748</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6594810593723833</v>
+        <v>0.6642080116090993</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7509179590724617</v>
+        <v>0.751733685892735</v>
       </c>
     </row>
     <row r="16">
@@ -4951,19 +4951,19 @@
         <v>25219</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17172</v>
+        <v>17309</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34301</v>
+        <v>34028</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1392198210971644</v>
+        <v>0.1392198210971645</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09479855653264602</v>
+        <v>0.09555497406684524</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1893554952501887</v>
+        <v>0.1878482453974442</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -4972,19 +4972,19 @@
         <v>18813</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13409</v>
+        <v>12136</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25999</v>
+        <v>25085</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1311104905902322</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09344774508837861</v>
+        <v>0.08457698296120221</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1811963097339168</v>
+        <v>0.1748249260069097</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -4993,19 +4993,19 @@
         <v>44032</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34509</v>
+        <v>34328</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58094</v>
+        <v>55391</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.135635500249694</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1063016053178013</v>
+        <v>0.1057445261558793</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1789523339158704</v>
+        <v>0.1706247701064756</v>
       </c>
     </row>
     <row r="17">
@@ -5022,19 +5022,19 @@
         <v>72050</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59909</v>
+        <v>60317</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>84504</v>
+        <v>84282</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3977437130949722</v>
+        <v>0.3977437130949724</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3307220223290404</v>
+        <v>0.332974992293264</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4664962573967182</v>
+        <v>0.4652734444780185</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>64</v>
@@ -5043,19 +5043,19 @@
         <v>37059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29865</v>
+        <v>29318</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46338</v>
+        <v>45880</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2582747738331842</v>
+        <v>0.2582747738331841</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2081329690118836</v>
+        <v>0.2043255374262954</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3229405588364612</v>
+        <v>0.3197453264154919</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>153</v>
@@ -5064,19 +5064,19 @@
         <v>109109</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>94628</v>
+        <v>95976</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>123155</v>
+        <v>124904</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3360984976060644</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2914902671089531</v>
+        <v>0.2956437368257786</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3793668305725864</v>
+        <v>0.3847518003290993</v>
       </c>
     </row>
     <row r="18">
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2618</v>
+        <v>2876</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.003162277733991031</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01445388446695092</v>
+        <v>0.01587847772390297</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -5117,16 +5117,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1774</v>
+        <v>2318</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.003013334615577028</v>
+        <v>0.003013334615577027</v>
       </c>
       <c r="O18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01236195253756292</v>
+        <v>0.01615338119467731</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>3584</v>
+        <v>3722</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.003096444935098175</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01104029857635359</v>
+        <v>0.01146653517688854</v>
       </c>
     </row>
     <row r="19">
@@ -5164,19 +5164,19 @@
         <v>107810</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>95464</v>
+        <v>94685</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>119830</v>
+        <v>120062</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5951530571437676</v>
+        <v>0.5951530571437678</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5270007191802699</v>
+        <v>0.522702378041673</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6615087727652161</v>
+        <v>0.6627913517304189</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>162</v>
@@ -5185,19 +5185,19 @@
         <v>98369</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>88797</v>
+        <v>89067</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>105855</v>
+        <v>106937</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6855588028293532</v>
+        <v>0.685558802829353</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6188459646844354</v>
+        <v>0.6207291322762943</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7377245305735299</v>
+        <v>0.7452712694514165</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>291</v>
@@ -5206,19 +5206,19 @@
         <v>206179</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>191220</v>
+        <v>189637</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>220111</v>
+        <v>218531</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6351123606540816</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.589031711608947</v>
+        <v>0.5841574624150389</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6780269240633863</v>
+        <v>0.6731617920270738</v>
       </c>
     </row>
     <row r="20">
@@ -5239,19 +5239,19 @@
         <v>76147</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61012</v>
+        <v>62683</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92383</v>
+        <v>92524</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1342687011174716</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1075811162592918</v>
+        <v>0.1105274369088621</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1628972476801618</v>
+        <v>0.1631451832268699</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>101</v>
@@ -5260,19 +5260,19 @@
         <v>62077</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>52333</v>
+        <v>51835</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73951</v>
+        <v>74007</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1184211214475167</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09983307716946908</v>
+        <v>0.0988831809239047</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1410718801856793</v>
+        <v>0.141179177746842</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>188</v>
@@ -5281,19 +5281,19 @@
         <v>138224</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>121372</v>
+        <v>120420</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>157905</v>
+        <v>158873</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1266565425799216</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1112143012362446</v>
+        <v>0.1103421887216447</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.144690291138125</v>
+        <v>0.1455769508399098</v>
       </c>
     </row>
     <row r="21">
@@ -5310,19 +5310,19 @@
         <v>245541</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>224759</v>
+        <v>224836</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>265677</v>
+        <v>266542</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4329553455117766</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3963118361832785</v>
+        <v>0.3964474568961956</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.468460446127488</v>
+        <v>0.4699869469494313</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>326</v>
@@ -5331,19 +5331,19 @@
         <v>188576</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>171192</v>
+        <v>171579</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>205852</v>
+        <v>205449</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.3597364039759727</v>
+        <v>0.3597364039759726</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3265747761695599</v>
+        <v>0.3273114334350443</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3926935352876327</v>
+        <v>0.3919247742944416</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>636</v>
@@ -5352,19 +5352,19 @@
         <v>434117</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>406270</v>
+        <v>407587</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>459151</v>
+        <v>461393</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3977856727586037</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3722699436486838</v>
+        <v>0.3734762973712306</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4207251285354597</v>
+        <v>0.4227791098082529</v>
       </c>
     </row>
     <row r="22">
@@ -5381,19 +5381,19 @@
         <v>3475</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8282</v>
+        <v>8266</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.006127713063698575</v>
+        <v>0.006127713063698577</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002059216787030802</v>
+        <v>0.002050436174827542</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01460327736393971</v>
+        <v>0.01457601514990012</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -5402,19 +5402,19 @@
         <v>2190</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5376</v>
+        <v>5459</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004177960199170708</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001262547211317987</v>
+        <v>0.001266799688605594</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01025597890132723</v>
+        <v>0.01041381177178216</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -5423,19 +5423,19 @@
         <v>5665</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2684</v>
+        <v>2746</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10986</v>
+        <v>10657</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005191177124272647</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002459813934132708</v>
+        <v>0.002516274494487711</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01006661582969527</v>
+        <v>0.009764679026888273</v>
       </c>
     </row>
     <row r="23">
@@ -5452,19 +5452,19 @@
         <v>364361</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>344673</v>
+        <v>343268</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>383904</v>
+        <v>383818</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6424672625389529</v>
+        <v>0.6424672625389531</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6077531807844456</v>
+        <v>0.6052748618011297</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6769275789203162</v>
+        <v>0.6767760681214887</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>625</v>
@@ -5473,19 +5473,19 @@
         <v>372451</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>356905</v>
+        <v>356303</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>388784</v>
+        <v>387057</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7105056871396149</v>
+        <v>0.7105056871396148</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.680848341892489</v>
+        <v>0.6797007947574314</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.74166285555989</v>
+        <v>0.738368673340416</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1079</v>
@@ -5494,19 +5494,19 @@
         <v>736812</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>710841</v>
+        <v>708594</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>764429</v>
+        <v>760730</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6751485479775928</v>
+        <v>0.6751485479775929</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6513507000675088</v>
+        <v>0.6492919899752602</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7004539846243051</v>
+        <v>0.6970648817094599</v>
       </c>
     </row>
     <row r="24">
